--- a/biology/Histoire de la zoologie et de la botanique/Paolo_Savi/Paolo_Savi.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Paolo_Savi/Paolo_Savi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paolo Savi, né le 11 juillet 1798 à Pise et mort le 5 avril 1871 à Pise, est géologue, un ornithologue et un entomologiste italien.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Paolo Savi est le fils de Gaetano Savi (1769-1844), professeur de botanique à l'université de Pise. Il obtient un titre de docteur en physique et en histoire naturelle à 19 ans. Savi devient professeur-assistant de zoologie à cette même université en 1820, puis professeur en 1823. Il donne également des cours en géologie. Il consacre beaucoup de temps au développement du muséum de l'université qui devient l'un des meilleurs d'Europe.
 Savi est considéré comme le père de la géologie italienne[réf. nécessaire]. Il étudie la géologie du  Mont Pisani et les Alpes Apuanes. Il donne l'explication de l'origine métamorphique du marbre de Carrare. Il contribue également à la compréhension des couches Miocène et des fossiles du Mont Bamboli. Giuseppe Meneghini (1811-1889) et lui font paraître des articles sur la stratigraphie et la géologie de la Toscane (1850-1851).
